--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_03.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_03.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mikako Sato</t>
+          <t>Haruka Kato</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
